--- a/Perhitungan_Gaji/Penggajian.xlsx
+++ b/Perhitungan_Gaji/Penggajian.xlsx
@@ -17,12 +17,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
-  <si>
-    <t>analisa</t>
-  </si>
-  <si>
-    <t>desain</t>
-  </si>
   <si>
     <t>coding</t>
   </si>
@@ -47,13 +41,27 @@
   <si>
     <t>gaji</t>
   </si>
+  <si>
+    <t>Analisa</t>
+  </si>
+  <si>
+    <t>Desain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -77,12 +85,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,27 +565,32 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="7">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <f>C2*$L$7</f>
         <v>4400000</v>
       </c>
@@ -416,14 +599,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8">
         <v>11</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">C3*$L$7</f>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D11" si="0">C3*$L$7</f>
         <v>4400000</v>
       </c>
       <c r="L3">
@@ -431,13 +615,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
@@ -447,13 +632,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
@@ -463,13 +649,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
@@ -479,7 +666,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
         <f>SUM(D2:D6)</f>
         <v>22000000</v>
       </c>
@@ -490,65 +680,70 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="14">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f>C11*$L$7</f>
         <v>4000000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="15">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f t="shared" ref="D12:D15" si="1">C12*$L$7</f>
         <v>4000000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="15">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="16">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
@@ -561,12 +756,12 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -578,7 +773,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -590,7 +785,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -602,7 +797,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -614,7 +809,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -632,12 +827,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -649,7 +844,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -661,7 +856,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -673,7 +868,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -685,7 +880,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -704,11 +899,12 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H37">
         <f>SUM(E7,E16,E27,E36)</f>
-        <v>70800000</v>
+        <v>48800000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
